--- a/ele/semaforBoard/Fabrication/panel1-pos-bottom.xlsx
+++ b/ele/semaforBoard/Fabrication/panel1-pos-bottom.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robotarna\Semafor\ele\semaforBoard\Fabrication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F68FE20-B49B-44A7-866F-347F53AE6FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F178A1-15F4-4BDD-B203-FB864AF05A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{D11BFBAD-E9F2-4BFE-8C1D-8F23293F3E90}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{D11BFBAD-E9F2-4BFE-8C1D-8F23293F3E90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -41,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="100">
   <si>
     <t>Val</t>
   </si>
@@ -338,6 +330,9 @@
   </si>
   <si>
     <t>Layer</t>
+  </si>
+  <si>
+    <t>33k</t>
   </si>
 </sst>
 </file>
@@ -741,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F602314A-5545-4D69-815C-6622AB23B207}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1700,7 +1695,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>45</v>
@@ -1722,8 +1717,8 @@
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>44</v>
+      <c r="B43" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>45</v>
@@ -1746,7 +1741,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>45</v>
@@ -1768,8 +1763,8 @@
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>44</v>
+      <c r="B45" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>45</v>
